--- a/xlsx/_wiki_米哈伊尔·尤日尼_intext.xlsx
+++ b/xlsx/_wiki_米哈伊尔·尤日尼_intext.xlsx
@@ -887,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
